--- a/1.3/Software Development Unit 1, 1.3 - Planning Website - Anna Legaspi.xlsx
+++ b/1.3/Software Development Unit 1, 1.3 - Planning Website - Anna Legaspi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\My Stuff\My Important Files\Education\Vision2Learn\Level 3 Software Development\Unit 1 - Improving Productivity using IT\1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C83F6F-5A88-4ED8-A412-5F2AE0E91F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5237221C-5BB8-4CD3-9355-8F8A22154D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t xml:space="preserve"> Tasks</t>
   </si>
@@ -149,6 +149,9 @@
   <si>
     <t>Final touches to website</t>
   </si>
+  <si>
+    <t xml:space="preserve">LIVE TESTING </t>
+  </si>
 </sst>
 </file>
 
@@ -229,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -346,7 +349,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -359,54 +364,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -422,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -449,35 +406,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,90 +714,95 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BG46"/>
+  <dimension ref="A1:BL51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="BA11" sqref="BA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.140625" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="1" customWidth="1"/>
-    <col min="3" max="59" width="4.42578125" customWidth="1"/>
+    <col min="3" max="64" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="26"/>
-      <c r="AX1" s="26"/>
-      <c r="AY1" s="26"/>
-      <c r="AZ1" s="26"/>
-      <c r="BA1" s="26"/>
-      <c r="BB1" s="26"/>
-      <c r="BC1" s="26"/>
-      <c r="BD1" s="26"/>
-      <c r="BE1" s="26"/>
-      <c r="BF1" s="26"/>
-      <c r="BG1" s="27"/>
-    </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
+      <c r="BD1" s="20"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="20"/>
+      <c r="BG1" s="20"/>
+      <c r="BH1" s="20"/>
+      <c r="BI1" s="20"/>
+      <c r="BJ1" s="20"/>
+      <c r="BK1" s="20"/>
+      <c r="BL1" s="22"/>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="21">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="3">
@@ -983,27 +931,70 @@
       <c r="AS2" s="3">
         <v>43</v>
       </c>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2"/>
-      <c r="BF2" s="2"/>
-      <c r="BG2" s="7"/>
-    </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AT2" s="3">
+        <v>44</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>45</v>
+      </c>
+      <c r="AV2" s="3">
+        <v>46</v>
+      </c>
+      <c r="AW2" s="3">
+        <v>47</v>
+      </c>
+      <c r="AX2" s="3">
+        <v>48</v>
+      </c>
+      <c r="AY2" s="3">
+        <v>49</v>
+      </c>
+      <c r="AZ2" s="3">
+        <v>50</v>
+      </c>
+      <c r="BA2" s="3">
+        <v>51</v>
+      </c>
+      <c r="BB2" s="3">
+        <v>52</v>
+      </c>
+      <c r="BC2" s="3">
+        <v>53</v>
+      </c>
+      <c r="BD2" s="3">
+        <v>54</v>
+      </c>
+      <c r="BE2" s="3">
+        <v>55</v>
+      </c>
+      <c r="BF2" s="3">
+        <v>56</v>
+      </c>
+      <c r="BG2" s="3">
+        <v>57</v>
+      </c>
+      <c r="BH2" s="3">
+        <v>58</v>
+      </c>
+      <c r="BI2" s="3">
+        <v>59</v>
+      </c>
+      <c r="BJ2" s="3">
+        <v>60</v>
+      </c>
+      <c r="BK2" s="3">
+        <v>61</v>
+      </c>
+      <c r="BL2" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -1059,16 +1050,21 @@
       <c r="BD3" s="2"/>
       <c r="BE3" s="2"/>
       <c r="BF3" s="2"/>
-      <c r="BG3" s="7"/>
-    </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG3" s="2"/>
+      <c r="BH3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BJ3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="7"/>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="23"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1124,16 +1120,21 @@
       <c r="BD4" s="2"/>
       <c r="BE4" s="2"/>
       <c r="BF4" s="2"/>
-      <c r="BG4" s="7"/>
-    </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="7"/>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="11"/>
       <c r="F5" s="4"/>
@@ -1189,16 +1190,21 @@
       <c r="BD5" s="2"/>
       <c r="BE5" s="2"/>
       <c r="BF5" s="2"/>
-      <c r="BG5" s="7"/>
-    </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="2"/>
+      <c r="BL5" s="7"/>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="12"/>
@@ -1254,16 +1260,21 @@
       <c r="BD6" s="2"/>
       <c r="BE6" s="2"/>
       <c r="BF6" s="2"/>
-      <c r="BG6" s="7"/>
-    </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG6" s="2"/>
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="2"/>
+      <c r="BK6" s="2"/>
+      <c r="BL6" s="7"/>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1319,16 +1330,21 @@
       <c r="BD7" s="2"/>
       <c r="BE7" s="2"/>
       <c r="BF7" s="2"/>
-      <c r="BG7" s="7"/>
-    </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG7" s="2"/>
+      <c r="BH7" s="2"/>
+      <c r="BI7" s="2"/>
+      <c r="BJ7" s="2"/>
+      <c r="BK7" s="2"/>
+      <c r="BL7" s="7"/>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1384,12 +1400,17 @@
       <c r="BD8" s="2"/>
       <c r="BE8" s="2"/>
       <c r="BF8" s="2"/>
-      <c r="BG8" s="7"/>
-    </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG8" s="2"/>
+      <c r="BH8" s="2"/>
+      <c r="BI8" s="2"/>
+      <c r="BJ8" s="2"/>
+      <c r="BK8" s="2"/>
+      <c r="BL8" s="7"/>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="24"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1445,14 +1466,19 @@
       <c r="BD9" s="2"/>
       <c r="BE9" s="2"/>
       <c r="BF9" s="2"/>
-      <c r="BG9" s="7"/>
-    </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG9" s="2"/>
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
+      <c r="BJ9" s="2"/>
+      <c r="BK9" s="2"/>
+      <c r="BL9" s="7"/>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="24"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1508,16 +1534,21 @@
       <c r="BD10" s="2"/>
       <c r="BE10" s="2"/>
       <c r="BF10" s="2"/>
-      <c r="BG10" s="7"/>
-    </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG10" s="2"/>
+      <c r="BH10" s="2"/>
+      <c r="BI10" s="2"/>
+      <c r="BJ10" s="2"/>
+      <c r="BK10" s="2"/>
+      <c r="BL10" s="7"/>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1573,16 +1604,21 @@
       <c r="BD11" s="2"/>
       <c r="BE11" s="2"/>
       <c r="BF11" s="2"/>
-      <c r="BG11" s="7"/>
-    </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG11" s="2"/>
+      <c r="BH11" s="2"/>
+      <c r="BI11" s="2"/>
+      <c r="BJ11" s="2"/>
+      <c r="BK11" s="2"/>
+      <c r="BL11" s="7"/>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1638,16 +1674,21 @@
       <c r="BD12" s="2"/>
       <c r="BE12" s="2"/>
       <c r="BF12" s="2"/>
-      <c r="BG12" s="7"/>
-    </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG12" s="2"/>
+      <c r="BH12" s="2"/>
+      <c r="BI12" s="2"/>
+      <c r="BJ12" s="2"/>
+      <c r="BK12" s="2"/>
+      <c r="BL12" s="7"/>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1703,16 +1744,21 @@
       <c r="BD13" s="2"/>
       <c r="BE13" s="2"/>
       <c r="BF13" s="2"/>
-      <c r="BG13" s="7"/>
-    </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="2"/>
+      <c r="BJ13" s="2"/>
+      <c r="BK13" s="2"/>
+      <c r="BL13" s="7"/>
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1768,12 +1814,17 @@
       <c r="BD14" s="2"/>
       <c r="BE14" s="2"/>
       <c r="BF14" s="2"/>
-      <c r="BG14" s="7"/>
-    </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG14" s="2"/>
+      <c r="BH14" s="2"/>
+      <c r="BI14" s="2"/>
+      <c r="BJ14" s="2"/>
+      <c r="BK14" s="2"/>
+      <c r="BL14" s="7"/>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1829,14 +1880,19 @@
       <c r="BD15" s="2"/>
       <c r="BE15" s="2"/>
       <c r="BF15" s="2"/>
-      <c r="BG15" s="7"/>
-    </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG15" s="2"/>
+      <c r="BH15" s="2"/>
+      <c r="BI15" s="2"/>
+      <c r="BJ15" s="2"/>
+      <c r="BK15" s="2"/>
+      <c r="BL15" s="7"/>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="6"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1892,16 +1948,21 @@
       <c r="BD16" s="2"/>
       <c r="BE16" s="2"/>
       <c r="BF16" s="2"/>
-      <c r="BG16" s="7"/>
-    </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG16" s="2"/>
+      <c r="BH16" s="2"/>
+      <c r="BI16" s="2"/>
+      <c r="BJ16" s="2"/>
+      <c r="BK16" s="2"/>
+      <c r="BL16" s="7"/>
+    </row>
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1957,16 +2018,21 @@
       <c r="BD17" s="2"/>
       <c r="BE17" s="2"/>
       <c r="BF17" s="2"/>
-      <c r="BG17" s="7"/>
-    </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG17" s="2"/>
+      <c r="BH17" s="2"/>
+      <c r="BI17" s="2"/>
+      <c r="BJ17" s="2"/>
+      <c r="BK17" s="2"/>
+      <c r="BL17" s="7"/>
+    </row>
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2022,16 +2088,21 @@
       <c r="BD18" s="2"/>
       <c r="BE18" s="2"/>
       <c r="BF18" s="2"/>
-      <c r="BG18" s="7"/>
-    </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG18" s="2"/>
+      <c r="BH18" s="2"/>
+      <c r="BI18" s="2"/>
+      <c r="BJ18" s="2"/>
+      <c r="BK18" s="2"/>
+      <c r="BL18" s="7"/>
+    </row>
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2087,16 +2158,21 @@
       <c r="BD19" s="2"/>
       <c r="BE19" s="2"/>
       <c r="BF19" s="2"/>
-      <c r="BG19" s="7"/>
-    </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG19" s="2"/>
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="2"/>
+      <c r="BJ19" s="2"/>
+      <c r="BK19" s="2"/>
+      <c r="BL19" s="7"/>
+    </row>
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -2152,12 +2228,17 @@
       <c r="BD20" s="2"/>
       <c r="BE20" s="2"/>
       <c r="BF20" s="2"/>
-      <c r="BG20" s="7"/>
-    </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG20" s="2"/>
+      <c r="BH20" s="2"/>
+      <c r="BI20" s="2"/>
+      <c r="BJ20" s="2"/>
+      <c r="BK20" s="2"/>
+      <c r="BL20" s="7"/>
+    </row>
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -2213,14 +2294,19 @@
       <c r="BD21" s="2"/>
       <c r="BE21" s="2"/>
       <c r="BF21" s="2"/>
-      <c r="BG21" s="7"/>
-    </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG21" s="2"/>
+      <c r="BH21" s="2"/>
+      <c r="BI21" s="2"/>
+      <c r="BJ21" s="2"/>
+      <c r="BK21" s="2"/>
+      <c r="BL21" s="7"/>
+    </row>
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2276,16 +2362,21 @@
       <c r="BD22" s="2"/>
       <c r="BE22" s="2"/>
       <c r="BF22" s="2"/>
-      <c r="BG22" s="7"/>
-    </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG22" s="2"/>
+      <c r="BH22" s="2"/>
+      <c r="BI22" s="2"/>
+      <c r="BJ22" s="2"/>
+      <c r="BK22" s="2"/>
+      <c r="BL22" s="7"/>
+    </row>
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2341,16 +2432,21 @@
       <c r="BD23" s="2"/>
       <c r="BE23" s="2"/>
       <c r="BF23" s="2"/>
-      <c r="BG23" s="7"/>
-    </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG23" s="2"/>
+      <c r="BH23" s="2"/>
+      <c r="BI23" s="2"/>
+      <c r="BJ23" s="2"/>
+      <c r="BK23" s="2"/>
+      <c r="BL23" s="7"/>
+    </row>
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -2406,16 +2502,21 @@
       <c r="BD24" s="2"/>
       <c r="BE24" s="2"/>
       <c r="BF24" s="2"/>
-      <c r="BG24" s="7"/>
-    </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG24" s="2"/>
+      <c r="BH24" s="2"/>
+      <c r="BI24" s="2"/>
+      <c r="BJ24" s="2"/>
+      <c r="BK24" s="2"/>
+      <c r="BL24" s="7"/>
+    </row>
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -2471,16 +2572,21 @@
       <c r="BD25" s="2"/>
       <c r="BE25" s="2"/>
       <c r="BF25" s="2"/>
-      <c r="BG25" s="7"/>
-    </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG25" s="2"/>
+      <c r="BH25" s="2"/>
+      <c r="BI25" s="2"/>
+      <c r="BJ25" s="2"/>
+      <c r="BK25" s="2"/>
+      <c r="BL25" s="7"/>
+    </row>
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2536,16 +2642,21 @@
       <c r="BD26" s="2"/>
       <c r="BE26" s="2"/>
       <c r="BF26" s="2"/>
-      <c r="BG26" s="7"/>
-    </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG26" s="2"/>
+      <c r="BH26" s="2"/>
+      <c r="BI26" s="2"/>
+      <c r="BJ26" s="2"/>
+      <c r="BK26" s="2"/>
+      <c r="BL26" s="7"/>
+    </row>
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2601,14 +2712,19 @@
       <c r="BD27" s="2"/>
       <c r="BE27" s="2"/>
       <c r="BF27" s="2"/>
-      <c r="BG27" s="7"/>
-    </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG27" s="2"/>
+      <c r="BH27" s="2"/>
+      <c r="BI27" s="2"/>
+      <c r="BJ27" s="2"/>
+      <c r="BK27" s="2"/>
+      <c r="BL27" s="7"/>
+    </row>
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="6"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -2664,12 +2780,17 @@
       <c r="BD28" s="2"/>
       <c r="BE28" s="2"/>
       <c r="BF28" s="2"/>
-      <c r="BG28" s="7"/>
-    </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG28" s="2"/>
+      <c r="BH28" s="2"/>
+      <c r="BI28" s="2"/>
+      <c r="BJ28" s="2"/>
+      <c r="BK28" s="2"/>
+      <c r="BL28" s="7"/>
+    </row>
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="6"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2725,14 +2846,19 @@
       <c r="BD29" s="2"/>
       <c r="BE29" s="2"/>
       <c r="BF29" s="2"/>
-      <c r="BG29" s="7"/>
-    </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG29" s="2"/>
+      <c r="BH29" s="2"/>
+      <c r="BI29" s="2"/>
+      <c r="BJ29" s="2"/>
+      <c r="BK29" s="2"/>
+      <c r="BL29" s="7"/>
+    </row>
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="6"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2788,16 +2914,21 @@
       <c r="BD30" s="2"/>
       <c r="BE30" s="2"/>
       <c r="BF30" s="2"/>
-      <c r="BG30" s="7"/>
-    </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG30" s="2"/>
+      <c r="BH30" s="2"/>
+      <c r="BI30" s="2"/>
+      <c r="BJ30" s="2"/>
+      <c r="BK30" s="2"/>
+      <c r="BL30" s="7"/>
+    </row>
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -2836,7 +2967,7 @@
       <c r="AM31" s="2"/>
       <c r="AN31" s="2"/>
       <c r="AO31" s="2"/>
-      <c r="AP31" s="28"/>
+      <c r="AP31" s="18"/>
       <c r="AQ31" s="4"/>
       <c r="AR31" s="4"/>
       <c r="AS31" s="4"/>
@@ -2853,16 +2984,21 @@
       <c r="BD31" s="2"/>
       <c r="BE31" s="2"/>
       <c r="BF31" s="2"/>
-      <c r="BG31" s="7"/>
-    </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG31" s="2"/>
+      <c r="BH31" s="2"/>
+      <c r="BI31" s="2"/>
+      <c r="BJ31" s="2"/>
+      <c r="BK31" s="2"/>
+      <c r="BL31" s="7"/>
+    </row>
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -2918,16 +3054,21 @@
       <c r="BD32" s="2"/>
       <c r="BE32" s="2"/>
       <c r="BF32" s="2"/>
-      <c r="BG32" s="7"/>
-    </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG32" s="2"/>
+      <c r="BH32" s="2"/>
+      <c r="BI32" s="2"/>
+      <c r="BJ32" s="2"/>
+      <c r="BK32" s="2"/>
+      <c r="BL32" s="7"/>
+    </row>
+    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -2983,16 +3124,21 @@
       <c r="BD33" s="2"/>
       <c r="BE33" s="2"/>
       <c r="BF33" s="2"/>
-      <c r="BG33" s="7"/>
-    </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG33" s="2"/>
+      <c r="BH33" s="2"/>
+      <c r="BI33" s="2"/>
+      <c r="BJ33" s="2"/>
+      <c r="BK33" s="2"/>
+      <c r="BL33" s="7"/>
+    </row>
+    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -3048,12 +3194,17 @@
       <c r="BD34" s="2"/>
       <c r="BE34" s="2"/>
       <c r="BF34" s="2"/>
-      <c r="BG34" s="7"/>
-    </row>
-    <row r="35" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG34" s="2"/>
+      <c r="BH34" s="2"/>
+      <c r="BI34" s="2"/>
+      <c r="BJ34" s="2"/>
+      <c r="BK34" s="2"/>
+      <c r="BL34" s="7"/>
+    </row>
+    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="6"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -3109,14 +3260,19 @@
       <c r="BD35" s="2"/>
       <c r="BE35" s="2"/>
       <c r="BF35" s="2"/>
-      <c r="BG35" s="7"/>
-    </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG35" s="2"/>
+      <c r="BH35" s="2"/>
+      <c r="BI35" s="2"/>
+      <c r="BJ35" s="2"/>
+      <c r="BK35" s="2"/>
+      <c r="BL35" s="7"/>
+    </row>
+    <row r="36" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="6"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -3172,16 +3328,21 @@
       <c r="BD36" s="2"/>
       <c r="BE36" s="2"/>
       <c r="BF36" s="2"/>
-      <c r="BG36" s="7"/>
-    </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG36" s="2"/>
+      <c r="BH36" s="2"/>
+      <c r="BI36" s="2"/>
+      <c r="BJ36" s="2"/>
+      <c r="BK36" s="2"/>
+      <c r="BL36" s="7"/>
+    </row>
+    <row r="37" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="6"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -3237,16 +3398,21 @@
       <c r="BD37" s="2"/>
       <c r="BE37" s="2"/>
       <c r="BF37" s="2"/>
-      <c r="BG37" s="7"/>
-    </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG37" s="2"/>
+      <c r="BH37" s="2"/>
+      <c r="BI37" s="2"/>
+      <c r="BJ37" s="2"/>
+      <c r="BK37" s="2"/>
+      <c r="BL37" s="7"/>
+    </row>
+    <row r="38" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="6"/>
+      <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -3302,16 +3468,21 @@
       <c r="BD38" s="2"/>
       <c r="BE38" s="2"/>
       <c r="BF38" s="2"/>
-      <c r="BG38" s="7"/>
-    </row>
-    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG38" s="2"/>
+      <c r="BH38" s="2"/>
+      <c r="BI38" s="2"/>
+      <c r="BJ38" s="2"/>
+      <c r="BK38" s="2"/>
+      <c r="BL38" s="7"/>
+    </row>
+    <row r="39" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="6"/>
+      <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -3367,16 +3538,21 @@
       <c r="BD39" s="2"/>
       <c r="BE39" s="2"/>
       <c r="BF39" s="2"/>
-      <c r="BG39" s="7"/>
-    </row>
-    <row r="40" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG39" s="2"/>
+      <c r="BH39" s="2"/>
+      <c r="BI39" s="2"/>
+      <c r="BJ39" s="2"/>
+      <c r="BK39" s="2"/>
+      <c r="BL39" s="7"/>
+    </row>
+    <row r="40" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="6"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -3432,12 +3608,17 @@
       <c r="BD40" s="2"/>
       <c r="BE40" s="2"/>
       <c r="BF40" s="2"/>
-      <c r="BG40" s="7"/>
-    </row>
-    <row r="41" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG40" s="2"/>
+      <c r="BH40" s="2"/>
+      <c r="BI40" s="2"/>
+      <c r="BJ40" s="2"/>
+      <c r="BK40" s="2"/>
+      <c r="BL40" s="7"/>
+    </row>
+    <row r="41" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="6"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -3493,14 +3674,19 @@
       <c r="BD41" s="2"/>
       <c r="BE41" s="2"/>
       <c r="BF41" s="2"/>
-      <c r="BG41" s="7"/>
-    </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG41" s="2"/>
+      <c r="BH41" s="2"/>
+      <c r="BI41" s="2"/>
+      <c r="BJ41" s="2"/>
+      <c r="BK41" s="2"/>
+      <c r="BL41" s="7"/>
+    </row>
+    <row r="42" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="6"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -3556,16 +3742,21 @@
       <c r="BD42" s="2"/>
       <c r="BE42" s="2"/>
       <c r="BF42" s="2"/>
-      <c r="BG42" s="7"/>
-    </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG42" s="2"/>
+      <c r="BH42" s="2"/>
+      <c r="BI42" s="2"/>
+      <c r="BJ42" s="2"/>
+      <c r="BK42" s="2"/>
+      <c r="BL42" s="7"/>
+    </row>
+    <row r="43" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="6"/>
+      <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -3621,12 +3812,17 @@
       <c r="BD43" s="10"/>
       <c r="BE43" s="10"/>
       <c r="BF43" s="2"/>
-      <c r="BG43" s="7"/>
-    </row>
-    <row r="44" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG43" s="2"/>
+      <c r="BH43" s="2"/>
+      <c r="BI43" s="2"/>
+      <c r="BJ43" s="2"/>
+      <c r="BK43" s="2"/>
+      <c r="BL43" s="7"/>
+    </row>
+    <row r="44" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="6"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -3682,16 +3878,21 @@
       <c r="BD44" s="2"/>
       <c r="BE44" s="2"/>
       <c r="BF44" s="2"/>
-      <c r="BG44" s="7"/>
-    </row>
-    <row r="45" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG44" s="2"/>
+      <c r="BH44" s="2"/>
+      <c r="BI44" s="2"/>
+      <c r="BJ44" s="2"/>
+      <c r="BK44" s="2"/>
+      <c r="BL44" s="7"/>
+    </row>
+    <row r="45" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="6"/>
+      <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -3747,76 +3948,430 @@
       <c r="BD45" s="2"/>
       <c r="BE45" s="2"/>
       <c r="BF45" s="2"/>
-      <c r="BG45" s="7"/>
-    </row>
-    <row r="46" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
+      <c r="BG45" s="2"/>
+      <c r="BH45" s="2"/>
+      <c r="BI45" s="2"/>
+      <c r="BJ45" s="2"/>
+      <c r="BK45" s="2"/>
+      <c r="BL45" s="7"/>
+    </row>
+    <row r="46" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="9"/>
-      <c r="AC46" s="9"/>
-      <c r="AD46" s="9"/>
-      <c r="AE46" s="9"/>
-      <c r="AF46" s="9"/>
-      <c r="AG46" s="9"/>
-      <c r="AH46" s="9"/>
-      <c r="AI46" s="9"/>
-      <c r="AJ46" s="9"/>
-      <c r="AK46" s="9"/>
-      <c r="AL46" s="9"/>
-      <c r="AM46" s="9"/>
-      <c r="AN46" s="9"/>
-      <c r="AO46" s="9"/>
-      <c r="AP46" s="9"/>
-      <c r="AQ46" s="9"/>
-      <c r="AR46" s="9"/>
-      <c r="AS46" s="9"/>
-      <c r="AT46" s="9"/>
-      <c r="AU46" s="9"/>
-      <c r="AV46" s="9"/>
-      <c r="AW46" s="9"/>
-      <c r="AX46" s="9"/>
-      <c r="AY46" s="9"/>
-      <c r="AZ46" s="9"/>
-      <c r="BA46" s="9"/>
-      <c r="BB46" s="9"/>
-      <c r="BC46" s="9"/>
-      <c r="BD46" s="9"/>
-      <c r="BE46" s="9"/>
-      <c r="BF46" s="29"/>
-      <c r="BG46" s="30"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="2"/>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="2"/>
+      <c r="AJ46" s="2"/>
+      <c r="AK46" s="2"/>
+      <c r="AL46" s="2"/>
+      <c r="AM46" s="2"/>
+      <c r="AN46" s="2"/>
+      <c r="AO46" s="2"/>
+      <c r="AP46" s="2"/>
+      <c r="AQ46" s="2"/>
+      <c r="AR46" s="2"/>
+      <c r="AS46" s="2"/>
+      <c r="AT46" s="2"/>
+      <c r="AU46" s="2"/>
+      <c r="AV46" s="2"/>
+      <c r="AW46" s="2"/>
+      <c r="AX46" s="2"/>
+      <c r="AY46" s="2"/>
+      <c r="AZ46" s="2"/>
+      <c r="BA46" s="2"/>
+      <c r="BB46" s="2"/>
+      <c r="BC46" s="2"/>
+      <c r="BD46" s="2"/>
+      <c r="BE46" s="2"/>
+      <c r="BF46" s="12"/>
+      <c r="BG46" s="12"/>
+      <c r="BH46" s="2"/>
+      <c r="BI46" s="2"/>
+      <c r="BJ46" s="2"/>
+      <c r="BK46" s="2"/>
+      <c r="BL46" s="7"/>
+    </row>
+    <row r="47" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="2"/>
+      <c r="AK47" s="2"/>
+      <c r="AL47" s="2"/>
+      <c r="AM47" s="2"/>
+      <c r="AN47" s="2"/>
+      <c r="AO47" s="2"/>
+      <c r="AP47" s="2"/>
+      <c r="AQ47" s="2"/>
+      <c r="AR47" s="2"/>
+      <c r="AS47" s="2"/>
+      <c r="AT47" s="2"/>
+      <c r="AU47" s="2"/>
+      <c r="AV47" s="2"/>
+      <c r="AW47" s="2"/>
+      <c r="AX47" s="2"/>
+      <c r="AY47" s="2"/>
+      <c r="AZ47" s="2"/>
+      <c r="BA47" s="2"/>
+      <c r="BB47" s="2"/>
+      <c r="BC47" s="2"/>
+      <c r="BD47" s="2"/>
+      <c r="BE47" s="2"/>
+      <c r="BF47" s="2"/>
+      <c r="BG47" s="2"/>
+      <c r="BH47" s="2"/>
+      <c r="BI47" s="2"/>
+      <c r="BJ47" s="2"/>
+      <c r="BK47" s="2"/>
+      <c r="BL47" s="7"/>
+    </row>
+    <row r="48" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="2"/>
+      <c r="AJ48" s="2"/>
+      <c r="AK48" s="2"/>
+      <c r="AL48" s="2"/>
+      <c r="AM48" s="2"/>
+      <c r="AN48" s="2"/>
+      <c r="AO48" s="2"/>
+      <c r="AP48" s="2"/>
+      <c r="AQ48" s="2"/>
+      <c r="AR48" s="2"/>
+      <c r="AS48" s="2"/>
+      <c r="AT48" s="2"/>
+      <c r="AU48" s="2"/>
+      <c r="AV48" s="2"/>
+      <c r="AW48" s="2"/>
+      <c r="AX48" s="2"/>
+      <c r="AY48" s="2"/>
+      <c r="AZ48" s="2"/>
+      <c r="BA48" s="2"/>
+      <c r="BB48" s="2"/>
+      <c r="BC48" s="2"/>
+      <c r="BD48" s="2"/>
+      <c r="BE48" s="2"/>
+      <c r="BF48" s="2"/>
+      <c r="BG48" s="2"/>
+      <c r="BH48" s="4"/>
+      <c r="BI48" s="2"/>
+      <c r="BJ48" s="2"/>
+      <c r="BK48" s="2"/>
+      <c r="BL48" s="7"/>
+    </row>
+    <row r="49" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2"/>
+      <c r="AH49" s="2"/>
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="2"/>
+      <c r="AK49" s="2"/>
+      <c r="AL49" s="2"/>
+      <c r="AM49" s="2"/>
+      <c r="AN49" s="2"/>
+      <c r="AO49" s="2"/>
+      <c r="AP49" s="2"/>
+      <c r="AQ49" s="2"/>
+      <c r="AR49" s="2"/>
+      <c r="AS49" s="2"/>
+      <c r="AT49" s="2"/>
+      <c r="AU49" s="2"/>
+      <c r="AV49" s="2"/>
+      <c r="AW49" s="2"/>
+      <c r="AX49" s="2"/>
+      <c r="AY49" s="2"/>
+      <c r="AZ49" s="2"/>
+      <c r="BA49" s="2"/>
+      <c r="BB49" s="2"/>
+      <c r="BC49" s="2"/>
+      <c r="BD49" s="2"/>
+      <c r="BE49" s="2"/>
+      <c r="BF49" s="2"/>
+      <c r="BG49" s="2"/>
+      <c r="BH49" s="12"/>
+      <c r="BI49" s="2"/>
+      <c r="BJ49" s="2"/>
+      <c r="BK49" s="2"/>
+      <c r="BL49" s="7"/>
+    </row>
+    <row r="50" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="2"/>
+      <c r="AH50" s="2"/>
+      <c r="AI50" s="2"/>
+      <c r="AJ50" s="2"/>
+      <c r="AK50" s="2"/>
+      <c r="AL50" s="2"/>
+      <c r="AM50" s="2"/>
+      <c r="AN50" s="2"/>
+      <c r="AO50" s="2"/>
+      <c r="AP50" s="2"/>
+      <c r="AQ50" s="2"/>
+      <c r="AR50" s="2"/>
+      <c r="AS50" s="2"/>
+      <c r="AT50" s="2"/>
+      <c r="AU50" s="2"/>
+      <c r="AV50" s="2"/>
+      <c r="AW50" s="2"/>
+      <c r="AX50" s="2"/>
+      <c r="AY50" s="2"/>
+      <c r="AZ50" s="2"/>
+      <c r="BA50" s="2"/>
+      <c r="BB50" s="2"/>
+      <c r="BC50" s="2"/>
+      <c r="BD50" s="2"/>
+      <c r="BE50" s="2"/>
+      <c r="BF50" s="2"/>
+      <c r="BG50" s="2"/>
+      <c r="BH50" s="2"/>
+      <c r="BI50" s="13"/>
+      <c r="BJ50" s="2"/>
+      <c r="BK50" s="2"/>
+      <c r="BL50" s="7"/>
+    </row>
+    <row r="51" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="9"/>
+      <c r="AC51" s="9"/>
+      <c r="AD51" s="9"/>
+      <c r="AE51" s="9"/>
+      <c r="AF51" s="9"/>
+      <c r="AG51" s="9"/>
+      <c r="AH51" s="9"/>
+      <c r="AI51" s="9"/>
+      <c r="AJ51" s="9"/>
+      <c r="AK51" s="9"/>
+      <c r="AL51" s="9"/>
+      <c r="AM51" s="9"/>
+      <c r="AN51" s="9"/>
+      <c r="AO51" s="9"/>
+      <c r="AP51" s="9"/>
+      <c r="AQ51" s="9"/>
+      <c r="AR51" s="9"/>
+      <c r="AS51" s="9"/>
+      <c r="AT51" s="9"/>
+      <c r="AU51" s="9"/>
+      <c r="AV51" s="9"/>
+      <c r="AW51" s="9"/>
+      <c r="AX51" s="9"/>
+      <c r="AY51" s="9"/>
+      <c r="AZ51" s="9"/>
+      <c r="BA51" s="9"/>
+      <c r="BB51" s="9"/>
+      <c r="BC51" s="9"/>
+      <c r="BD51" s="9"/>
+      <c r="BE51" s="9"/>
+      <c r="BF51" s="9"/>
+      <c r="BG51" s="9"/>
+      <c r="BH51" s="9"/>
+      <c r="BI51" s="9"/>
+      <c r="BJ51" s="23"/>
+      <c r="BK51" s="23"/>
+      <c r="BL51" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:BG1"/>
+    <mergeCell ref="C1:BL1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>

--- a/1.3/Software Development Unit 1, 1.3 - Planning Website - Anna Legaspi.xlsx
+++ b/1.3/Software Development Unit 1, 1.3 - Planning Website - Anna Legaspi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\My Stuff\My Important Files\Education\Vision2Learn\Level 3 Software Development\Unit 1 - Improving Productivity using IT\1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5237221C-5BB8-4CD3-9355-8F8A22154D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AB5BB4-4F55-49EE-B547-8C61454F4610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4080" windowWidth="13470" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Website Plan" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t xml:space="preserve"> Tasks</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Check text for authenticity</t>
-  </si>
-  <si>
-    <t>Add graphics</t>
   </si>
   <si>
     <t>Add text</t>
@@ -102,9 +99,6 @@
     <t>Create buttons for navigation</t>
   </si>
   <si>
-    <t>Create/collate images for website</t>
-  </si>
-  <si>
     <t>Check file format of images is fit for purpose</t>
   </si>
   <si>
@@ -151,6 +145,15 @@
   </si>
   <si>
     <t xml:space="preserve">LIVE TESTING </t>
+  </si>
+  <si>
+    <t>Test browser compatibility</t>
+  </si>
+  <si>
+    <t>Create/collate images/videos for website</t>
+  </si>
+  <si>
+    <t>Add graphics/videos</t>
   </si>
 </sst>
 </file>
@@ -410,17 +413,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,7 +720,7 @@
   <dimension ref="A1:BL51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BA11" sqref="BA11"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,72 +735,72 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="20"/>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
-      <c r="AU1" s="20"/>
-      <c r="AV1" s="20"/>
-      <c r="AW1" s="20"/>
-      <c r="AX1" s="20"/>
-      <c r="AY1" s="20"/>
-      <c r="AZ1" s="20"/>
-      <c r="BA1" s="20"/>
-      <c r="BB1" s="20"/>
-      <c r="BC1" s="20"/>
-      <c r="BD1" s="20"/>
-      <c r="BE1" s="20"/>
-      <c r="BF1" s="20"/>
-      <c r="BG1" s="20"/>
-      <c r="BH1" s="20"/>
-      <c r="BI1" s="20"/>
-      <c r="BJ1" s="20"/>
-      <c r="BK1" s="20"/>
-      <c r="BL1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="23"/>
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="23"/>
+      <c r="AY1" s="23"/>
+      <c r="AZ1" s="23"/>
+      <c r="BA1" s="23"/>
+      <c r="BB1" s="23"/>
+      <c r="BC1" s="23"/>
+      <c r="BD1" s="23"/>
+      <c r="BE1" s="23"/>
+      <c r="BF1" s="23"/>
+      <c r="BG1" s="23"/>
+      <c r="BH1" s="23"/>
+      <c r="BI1" s="23"/>
+      <c r="BJ1" s="23"/>
+      <c r="BK1" s="23"/>
+      <c r="BL1" s="24"/>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
@@ -991,7 +994,7 @@
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="15"/>
@@ -1059,10 +1062,10 @@
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -1129,10 +1132,10 @@
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1199,10 +1202,10 @@
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1269,10 +1272,10 @@
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1339,10 +1342,10 @@
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1475,7 +1478,7 @@
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -1543,10 +1546,10 @@
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1613,10 +1616,10 @@
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1683,10 +1686,10 @@
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1753,10 +1756,10 @@
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1889,7 +1892,7 @@
     </row>
     <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
@@ -1957,10 +1960,10 @@
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2027,10 +2030,10 @@
     </row>
     <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2097,10 +2100,10 @@
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2167,10 +2170,10 @@
     </row>
     <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2303,7 +2306,7 @@
     </row>
     <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="2"/>
@@ -2371,10 +2374,10 @@
     </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2441,10 +2444,10 @@
     </row>
     <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2511,10 +2514,10 @@
     </row>
     <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2581,10 +2584,10 @@
     </row>
     <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2651,10 +2654,10 @@
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2721,7 +2724,7 @@
     </row>
     <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="2"/>
@@ -2855,7 +2858,7 @@
     </row>
     <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="2"/>
@@ -2926,7 +2929,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2993,10 +2996,10 @@
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3063,10 +3066,10 @@
     </row>
     <row r="33" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -3133,10 +3136,10 @@
     </row>
     <row r="34" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -3269,7 +3272,7 @@
     </row>
     <row r="36" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="2"/>
@@ -3337,10 +3340,10 @@
     </row>
     <row r="37" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -3407,10 +3410,10 @@
     </row>
     <row r="38" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3477,10 +3480,10 @@
     </row>
     <row r="39" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3547,10 +3550,10 @@
     </row>
     <row r="40" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -3683,7 +3686,7 @@
     </row>
     <row r="42" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="2"/>
@@ -3751,10 +3754,10 @@
     </row>
     <row r="43" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -3887,10 +3890,10 @@
     </row>
     <row r="45" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -3957,10 +3960,10 @@
     </row>
     <row r="46" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="48" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
@@ -4161,10 +4164,10 @@
     </row>
     <row r="49" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -4231,10 +4234,10 @@
     </row>
     <row r="50" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -4301,10 +4304,10 @@
     </row>
     <row r="51" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>5</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -4365,9 +4368,9 @@
       <c r="BG51" s="9"/>
       <c r="BH51" s="9"/>
       <c r="BI51" s="9"/>
-      <c r="BJ51" s="23"/>
-      <c r="BK51" s="23"/>
-      <c r="BL51" s="24"/>
+      <c r="BJ51" s="21"/>
+      <c r="BK51" s="21"/>
+      <c r="BL51" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
